--- a/Seoul_Data_Analysis/서울시 자치구 년도별 CCTV 설치 현황.xlsx
+++ b/Seoul_Data_Analysis/서울시 자치구 년도별 CCTV 설치 현황.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Basic\Seoul_Data_Analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="525" windowWidth="27735" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Excel_Import_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>기관명</t>
   </si>
@@ -211,6 +216,10 @@
   </si>
   <si>
     <t>2011년 이전</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -221,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -547,6 +556,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -594,7 +606,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,7 +641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -841,7 +853,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -860,7 +872,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>54</v>
@@ -1694,7 +1706,9 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
